--- a/DOC/Outfit.xlsx
+++ b/DOC/Outfit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -43,7 +43,25 @@
     <t xml:space="preserve">KEY_OUTFIT_MONEY_DESC</t>
   </si>
   <si>
-    <t xml:space="preserve">ICON_OUTFIT_MONEY</t>
+    <t xml:space="preserve">money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEY_OUTFIT_BOOK_BLUE_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEY_OUTFIT_BOOK_BLUE_DESC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kEY_OUTFIT_APPLE_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEY_OUTFIT_APPLE_DESC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple</t>
   </si>
   <si>
     <t xml:space="preserve">KEY_OUTFIT_DUANDAO_NAME</t>
@@ -52,7 +70,7 @@
     <t xml:space="preserve">KEY_OUTFIT_DUANDAO_DESC</t>
   </si>
   <si>
-    <t xml:space="preserve">ICON_OUTFIT_DUANDAO</t>
+    <t xml:space="preserve">duandao</t>
   </si>
   <si>
     <t xml:space="preserve">KEY_OUTFIT_DUANJIAN_NAME</t>
@@ -61,16 +79,16 @@
     <t xml:space="preserve">KEY_OUTFIT_DUANJIAN_DESC</t>
   </si>
   <si>
-    <t xml:space="preserve">ICON_OUTFIT_DUANJIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEY_OUTFIT_HEALING_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEY_OUTFIT_HEALING_DESC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICON_OUTFIT_HEALING</t>
+    <t xml:space="preserve">duanjian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEY_OUTFIT_BANDAGE_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEY_OUTFIT_BANDAGE_DESC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bandage</t>
   </si>
 </sst>
 </file>
@@ -180,13 +198,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.92578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.42"/>
@@ -229,7 +247,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -241,12 +259,12 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -258,12 +276,12 @@
         <v>13</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -275,6 +293,40 @@
         <v>16</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>2</v>
       </c>
     </row>
